--- a/Test Data/FC_Gallery_MPM_AttachedFunctionality_FIM_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_MPM_AttachedFunctionality_FIM_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEA6958-72EB-405A-8817-8ED58F41ED76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65008F1A-AC84-4024-B96E-9FAC60B026C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="21" r:id="rId1"/>
@@ -104,13 +104,13 @@
     <t>Spain Market</t>
   </si>
   <si>
-    <t>NGC-3442/T2129</t>
-  </si>
-  <si>
     <t>IOB800</t>
   </si>
   <si>
     <t>NGC-3443/T1927/T1945/T1959</t>
+  </si>
+  <si>
+    <t>NGC-3442/T2129/T1598/T1607/T1635</t>
   </si>
 </sst>
 </file>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A536FEC4-E9A6-4E6E-B9B3-2D03138E7731}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -814,7 +814,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -847,7 +847,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -899,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0D4472-A0C4-4B6A-B4E8-26EC4FC949BA}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -944,7 +944,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/FC_Gallery_MPM_AttachedFunctionality_FIM_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_MPM_AttachedFunctionality_FIM_Series_Panels.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65008F1A-AC84-4024-B96E-9FAC60B026C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E197171D-0878-4F7C-9F1D-6F24BD0B6B19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="21" r:id="rId1"/>
     <sheet name="Belgium" sheetId="11" r:id="rId2"/>
     <sheet name="Italy" sheetId="25" r:id="rId3"/>
     <sheet name="Spain" sheetId="26" r:id="rId4"/>
+    <sheet name="Hungary" sheetId="27" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="27">
   <si>
     <t>Wg</t>
   </si>
@@ -111,6 +112,12 @@
   </si>
   <si>
     <t>NGC-3442/T2129/T1598/T1607/T1635</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-4308/T3625/T3636/T3647</t>
   </si>
 </sst>
 </file>
@@ -770,7 +777,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -899,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0D4472-A0C4-4B6A-B4E8-26EC4FC949BA}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1018,4 +1025,134 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26654F19-51DB-4E12-987F-D9A0C08A77E7}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Gallery_MPM_AttachedFunctionality_FIM_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_MPM_AttachedFunctionality_FIM_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E197171D-0878-4F7C-9F1D-6F24BD0B6B19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9D9005-217C-46D2-8AC8-C0F1947E45EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="21" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Wg</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>NGC-4308/T3625/T3636/T3647</t>
+  </si>
+  <si>
+    <t>NGC-3003/ T1240/T1246/T1255</t>
   </si>
 </sst>
 </file>
@@ -539,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DC885B-92D8-4F9F-884A-177C703FCDD4}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,11 +584,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -617,36 +622,41 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1031,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26654F19-51DB-4E12-987F-D9A0C08A77E7}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
